--- a/database/002_Qualitative.xlsx
+++ b/database/002_Qualitative.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Sheng\Documents\Github\pageant\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BBED2C-5246-454E-8E4E-5E87DA0D23CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182971E0-DE7A-40F9-8F12-6E300682E75C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1935" windowWidth="28800" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="遗传特征" sheetId="13" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="107">
   <si>
     <t>rs671</t>
   </si>
@@ -34,54 +34,13 @@
     <t>rs17822931</t>
   </si>
   <si>
-    <t>ABCC11</t>
-  </si>
-  <si>
     <t>rs1815739</t>
   </si>
   <si>
-    <t>ACTN3</t>
-  </si>
-  <si>
-    <t>计算规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>equal</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>匹配解读</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>不匹配解读</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>科学依据</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考文献</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>临床注解</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>G/G</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>喝酒不会脸红</t>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -90,12 +49,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>喝酒有些脸红</t>
-  </si>
-  <si>
-    <t>喝酒脸红</t>
-  </si>
-  <si>
     <t>A/A</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -116,14 +69,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>基因位点</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>基因名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>P0002</t>
   </si>
   <si>
@@ -133,10 +78,6 @@
     <t>P0007</t>
   </si>
   <si>
-    <t>指标代码</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>P0001</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -174,10 +115,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>T/T</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -186,14 +123,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>不可预测</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>A0001</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -211,62 +140,283 @@
     <t>rs429358</t>
   </si>
   <si>
-    <t>&gt;3x increased risk</t>
+    <t>A0002</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0004</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs351855</t>
+  </si>
+  <si>
+    <t>2.2-1.9 fold increased</t>
+  </si>
+  <si>
+    <t>A0005</t>
+  </si>
+  <si>
+    <t>Causes gout</t>
+  </si>
+  <si>
+    <t>1.74 times more likely to get</t>
+  </si>
+  <si>
+    <t>A/C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0005</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dry</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wet</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>endurance athletes</t>
+  </si>
+  <si>
+    <t>elite strength athletes</t>
+  </si>
+  <si>
+    <t>sprinter</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A little flush</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flush</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>No flush</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0010</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs113010081</t>
+  </si>
+  <si>
+    <t>snp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>match</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mismatch</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>genotype</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>trait_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs333</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>immune to HIV</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs1229984</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0011</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0012</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs41286168</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0013</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs4680</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0006</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs4988235</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lactose intolerance</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lactose tolerance</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs762551</t>
+  </si>
+  <si>
+    <t>sensitive</t>
+  </si>
+  <si>
+    <t>insensitive</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B+</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A+</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACA/ACA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Normal</t>
-  </si>
-  <si>
-    <t>A0002</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>High risk</t>
-  </si>
-  <si>
-    <t>A0004</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs351855</t>
-  </si>
-  <si>
-    <t>2.2-1.9 fold increased</t>
-  </si>
-  <si>
-    <t>A0005</t>
-  </si>
-  <si>
-    <t>Causes gout</t>
-  </si>
-  <si>
-    <t>1.74 times more likely to get</t>
-  </si>
-  <si>
-    <t>A/C</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>A0005</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dry</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wet</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>endurance athletes</t>
-  </si>
-  <si>
-    <t>elite strength athletes</t>
-  </si>
-  <si>
-    <t>sprinter</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs1801133</t>
+  </si>
+  <si>
+    <t>rs1801394</t>
+  </si>
+  <si>
+    <t>rs1801131</t>
+  </si>
+  <si>
+    <t>Need supplement</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs9939609</t>
+  </si>
+  <si>
+    <t>more likely</t>
+  </si>
+  <si>
+    <t>less likely</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>if</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can't predict</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0008</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0009</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0010</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>T/A</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>None allele mutated: Normal</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>One allele mutated: Increase the risk of obesity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Both allele mutated: Increase the risk of obesity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ε1/ε1: the rare missing allele</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ε4/ε4: ~11x increased Alzheimer's risk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ε1/ε4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ε1/ε2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ε3/ε4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ε2/ε4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ε2/ε2: lowest risk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ε3/ε3: the most common</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ε2/ε3 or ε2/ε4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>susceptible</t>
   </si>
 </sst>
 </file>
@@ -781,12 +931,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1143,437 +1292,871 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4118AE-10B0-4233-BCAD-4B089547FDB6}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="17" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="22" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.75" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="3" t="s">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="E54" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>61</v>
+      <c r="D56" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/database/002_Qualitative.xlsx
+++ b/database/002_Qualitative.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Sheng\Documents\Github\pageant\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182971E0-DE7A-40F9-8F12-6E300682E75C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427CCDBA-2F0C-4C6C-A5AB-D45D49335B36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1935" windowWidth="28800" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="遗传特征" sheetId="13" r:id="rId1"/>
@@ -189,234 +189,217 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>Flush</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0010</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs113010081</t>
+  </si>
+  <si>
+    <t>snp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>match</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mismatch</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>genotype</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>trait_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs333</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs1229984</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0011</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0012</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs41286168</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0013</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs4680</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0006</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs4988235</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs762551</t>
+  </si>
+  <si>
+    <t>sensitive</t>
+  </si>
+  <si>
+    <t>insensitive</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B+</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A+</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACA/ACA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs1801133</t>
+  </si>
+  <si>
+    <t>rs1801394</t>
+  </si>
+  <si>
+    <t>rs1801131</t>
+  </si>
+  <si>
+    <t>rs9939609</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>if</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0008</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0009</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0010</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>T/A</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>susceptible</t>
+  </si>
+  <si>
+    <t>Can't predict</t>
+  </si>
+  <si>
+    <t>No flush</t>
+  </si>
+  <si>
     <t>A little flush</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flush</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>No flush</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>A0010</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs113010081</t>
-  </si>
-  <si>
-    <t>snp</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>match</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>mismatch</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>genotype</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>trait_id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs333</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ε1/ε1: the rare missing allele</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ε4/ε4: ~11x increased Alzheimer's risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ε1/ε4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ε1/ε2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ε3/ε4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ε2/ε4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ε2/ε2: lowest risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ε3/ε3: the most common</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ε2/ε3 or ε2/ε4</t>
   </si>
   <si>
     <t>immune to HIV</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs1229984</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>P0011</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>A0012</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs41286168</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>A0013</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs4680</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>P0006</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs4988235</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Lactose intolerance</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Lactose tolerance</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs762551</t>
-  </si>
-  <si>
-    <t>sensitive</t>
-  </si>
-  <si>
-    <t>insensitive</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>B+</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>A+</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>A-</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACA/ACA</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slow</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs1801133</t>
-  </si>
-  <si>
-    <t>rs1801394</t>
-  </si>
-  <si>
-    <t>rs1801131</t>
-  </si>
-  <si>
-    <t>Need supplement</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>rs9939609</t>
-  </si>
-  <si>
-    <t>more likely</t>
+  </si>
+  <si>
+    <t>None allele mutated: Normal</t>
+  </si>
+  <si>
+    <t>One allele mutated: Increase the risk of obesity</t>
+  </si>
+  <si>
+    <t>Both allele mutated: Increase the risk of obesity</t>
+  </si>
+  <si>
+    <t>Need appropriate supplement</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>more likely</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>less likely</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if</t>
-  </si>
-  <si>
-    <t>if</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Can't predict</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>P0008</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>P0009</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>P0010</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>T/A</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>None allele mutated: Normal</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>One allele mutated: Increase the risk of obesity</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Both allele mutated: Increase the risk of obesity</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ε1/ε1: the rare missing allele</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ε4/ε4: ~11x increased Alzheimer's risk</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ε1/ε4</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ε1/ε2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ε3/ε4</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ε2/ε4</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ε2/ε2: lowest risk</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ε3/ε3: the most common</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ε2/ε3 or ε2/ε4</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>susceptible</t>
   </si>
 </sst>
 </file>
@@ -1294,38 +1277,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4118AE-10B0-4233-BCAD-4B089547FDB6}">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="17" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="30.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1339,7 +1322,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1353,7 +1336,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1367,7 +1350,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,10 +1361,10 @@
         <v>27</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1395,7 +1378,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1406,10 +1389,10 @@
         <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1423,7 +1406,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1437,7 +1420,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,7 +1434,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1462,10 +1445,10 @@
         <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1479,7 +1462,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1493,7 +1476,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1507,7 +1490,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1524,7 +1507,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1535,13 +1518,13 @@
         <v>5</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1552,13 +1535,13 @@
         <v>7</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1569,15 +1552,15 @@
         <v>8</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>0</v>
@@ -1586,57 +1569,57 @@
         <v>5</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>0</v>
@@ -1645,29 +1628,29 @@
         <v>7</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>7</v>
@@ -1676,23 +1659,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>0</v>
@@ -1701,52 +1684,52 @@
         <v>8</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
@@ -1763,7 +1746,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1774,10 +1757,10 @@
         <v>10</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -1788,10 +1771,10 @@
         <v>9</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -1802,10 +1785,10 @@
         <v>10</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -1816,10 +1799,10 @@
         <v>11</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -1830,10 +1813,10 @@
         <v>11</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
@@ -1844,10 +1827,10 @@
         <v>9</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>33</v>
       </c>
@@ -1858,10 +1841,10 @@
         <v>10</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
@@ -1872,10 +1855,10 @@
         <v>11</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1886,10 +1869,10 @@
         <v>9</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>33</v>
       </c>
@@ -1900,10 +1883,10 @@
         <v>9</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
@@ -1914,10 +1897,10 @@
         <v>10</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>33</v>
       </c>
@@ -1928,10 +1911,10 @@
         <v>11</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
@@ -1945,7 +1928,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
@@ -1959,7 +1942,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>41</v>
       </c>
@@ -1973,190 +1956,190 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D48" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="B49" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E55" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="B56" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="D57" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/database/002_Qualitative.xlsx
+++ b/database/002_Qualitative.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Sheng\Documents\Github\pageant\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427CCDBA-2F0C-4C6C-A5AB-D45D49335B36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB5E4BE-82D5-4D99-A521-D8BD76817BEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="遗传特征" sheetId="13" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="111">
   <si>
     <t>rs671</t>
   </si>
@@ -115,10 +115,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>T/T</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>C/C</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -375,30 +371,52 @@
     <t>immune to HIV</t>
   </si>
   <si>
+    <t>None allele mutated: Normal</t>
+  </si>
+  <si>
+    <t>One allele mutated: Increase the risk of obesity</t>
+  </si>
+  <si>
+    <t>Both allele mutated: Increase the risk of obesity</t>
+  </si>
+  <si>
+    <t>Need appropriate supplement</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>more likely</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>less likely</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>D/D</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>*/*</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C/*</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lactose tolerance</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>Lactose intolerance</t>
-  </si>
-  <si>
-    <t>Lactose tolerance</t>
-  </si>
-  <si>
-    <t>None allele mutated: Normal</t>
-  </si>
-  <si>
-    <t>One allele mutated: Increase the risk of obesity</t>
-  </si>
-  <si>
-    <t>Both allele mutated: Increase the risk of obesity</t>
-  </si>
-  <si>
-    <t>Need appropriate supplement</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>more likely</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>less likely</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>I/I</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>I/D</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1275,10 +1293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4118AE-10B0-4233-BCAD-4B089547FDB6}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1292,19 +1310,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -1319,7 +1337,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1333,7 +1351,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1347,7 +1365,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1358,10 +1376,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1386,10 +1404,10 @@
         <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1397,13 +1415,13 @@
         <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1414,7 +1432,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>22</v>
@@ -1428,10 +1446,10 @@
         <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1439,13 +1457,13 @@
         <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1453,13 +1471,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1470,10 +1488,10 @@
         <v>19</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1484,198 +1502,192 @@
         <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="2"/>
+        <v>78</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="2"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="2"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>68</v>
+        <v>10</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>22</v>
+        <v>86</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>69</v>
+        <v>87</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>0</v>
@@ -1684,462 +1696,653 @@
         <v>8</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>79</v>
+        <v>46</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>43</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>79</v>
+        <v>41</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>104</v>
+        <v>10</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C58" s="3" t="s">
+      <c r="D70" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>103</v>
+      <c r="D71" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/database/002_Qualitative.xlsx
+++ b/database/002_Qualitative.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Sheng\Documents\Github\pageant\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB5E4BE-82D5-4D99-A521-D8BD76817BEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C4BD80-F0FA-4F9E-998E-263A66BE496E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1295,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4118AE-10B0-4233-BCAD-4B089547FDB6}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2238,10 +2238,10 @@
         <v>5</v>
       </c>
       <c r="D64" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">

--- a/database/002_Qualitative.xlsx
+++ b/database/002_Qualitative.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Sheng\Documents\Github\pageant\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C4BD80-F0FA-4F9E-998E-263A66BE496E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B73709C-7D84-402A-97AC-4DB10FB1C8A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="遗传特征" sheetId="13" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="109">
   <si>
     <t>rs671</t>
   </si>
@@ -175,16 +175,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>endurance athletes</t>
-  </si>
-  <si>
-    <t>elite strength athletes</t>
-  </si>
-  <si>
-    <t>sprinter</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Flush</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -412,11 +402,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>I/I</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>I/D</t>
+    <t>The percentage of fast muscles is relatively high</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>The percentage of fast muscles is high</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>The percentage of slow muscles is high</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1293,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4118AE-10B0-4233-BCAD-4B089547FDB6}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1310,19 +1304,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -1337,7 +1331,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1351,7 +1345,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1365,7 +1359,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1379,7 +1373,7 @@
         <v>26</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1390,7 +1384,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>24</v>
@@ -1404,10 +1398,10 @@
         <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1415,13 +1409,13 @@
         <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1432,7 +1426,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>22</v>
@@ -1446,10 +1440,10 @@
         <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1457,13 +1451,13 @@
         <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1471,13 +1465,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1488,10 +1482,10 @@
         <v>19</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1502,192 +1496,198 @@
         <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>22</v>
+        <v>84</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>22</v>
+        <v>43</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>78</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>30</v>
+        <v>8</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>0</v>
@@ -1696,215 +1696,209 @@
         <v>8</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="2"/>
+        <v>63</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="2"/>
+        <v>63</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>32</v>
       </c>
@@ -1912,13 +1906,13 @@
         <v>2</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>32</v>
       </c>
@@ -1926,13 +1920,13 @@
         <v>2</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>32</v>
       </c>
@@ -1940,27 +1934,27 @@
         <v>2</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>32</v>
       </c>
@@ -1968,381 +1962,255 @@
         <v>2</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="D47" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>94</v>
       </c>
+      <c r="E50" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>94</v>
+        <v>61</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>96</v>
+        <v>105</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>35</v>
+        <v>70</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>37</v>
+        <v>5</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>38</v>
+        <v>9</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
